--- a/final-framework-testng/documents/Test Data_UNF_078.xlsx
+++ b/final-framework-testng/documents/Test Data_UNF_078.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A618D33-2C2D-4B6B-AD69-D7617FC95ECB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501537B5-234E-46DC-852F-E93C7EFE20CA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>admin</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>Grey Shirt</t>
+  </si>
+  <si>
+    <t>Cultural</t>
+  </si>
+  <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>formal</t>
   </si>
 </sst>
 </file>
@@ -384,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,7 +409,7 @@
     <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,19 +420,26 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,19 +450,26 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,19 +480,26 @@
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,17 +510,24 @@
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="J4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
